--- a/FP UC/fp.xlsx
+++ b/FP UC/fp.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Stunden</t>
   </si>
@@ -58,12 +58,15 @@
   <si>
     <t>Upload Image</t>
   </si>
+  <si>
+    <t>NEW</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +77,13 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -126,11 +136,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -581,7 +594,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1474,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1532,35 +1545,35 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>24.7</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="5">
         <v>21.45</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>20.28</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1584,6 +1597,11 @@
       </c>
       <c r="C9" s="3">
         <v>6.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/FP UC/fp.xlsx
+++ b/FP UC/fp.xlsx
@@ -176,6 +176,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Function</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> Points</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1490,7 +1519,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/FP UC/fp.xlsx
+++ b/FP UC/fp.xlsx
@@ -59,7 +59,7 @@
     <t>Upload Image</t>
   </si>
   <si>
-    <t>NEW</t>
+    <t>Semester 2</t>
   </si>
 </sst>
 </file>
@@ -75,15 +75,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="5"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -109,7 +111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -132,18 +134,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -265,12 +281,26 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$2:$B$9</c:f>
+              <c:f>Tabelle1!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>37</c:v>
                 </c:pt>
@@ -281,18 +311,9 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.7</c:v>
+                  <c:v>13.26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.45</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20.28</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.26</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>10.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -300,10 +321,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$2:$C$9</c:f>
+              <c:f>Tabelle1!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>23</c:v>
                 </c:pt>
@@ -314,18 +335,9 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>6.3</c:v>
                 </c:pt>
               </c:numCache>
@@ -1516,10 +1528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1530,13 +1542,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1552,13 +1564,13 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>32.5</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>31</v>
       </c>
     </row>
@@ -1574,62 +1586,64 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4">
-        <v>24.7</v>
-      </c>
-      <c r="C5" s="4">
-        <v>13</v>
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>13.26</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5">
-        <v>21.45</v>
-      </c>
-      <c r="C6" s="5">
-        <v>12</v>
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3">
+        <v>10.8</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6.3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4">
-        <v>20.28</v>
-      </c>
-      <c r="C7" s="4">
         <v>11</v>
       </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1">
-        <v>13.26</v>
-      </c>
-      <c r="C8" s="1">
-        <v>8</v>
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6">
+        <v>24.7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3">
-        <v>10.8</v>
-      </c>
-      <c r="C9" s="3">
-        <v>6.3</v>
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7">
+        <v>21.45</v>
+      </c>
+      <c r="C9" s="7">
+        <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6">
+        <v>20.28</v>
+      </c>
+      <c r="C10" s="6">
         <v>11</v>
       </c>
     </row>

--- a/FP UC/fp.xlsx
+++ b/FP UC/fp.xlsx
@@ -302,10 +302,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>40.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.5</c:v>
+                  <c:v>47.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>28</c:v>
@@ -314,7 +314,7 @@
                   <c:v>13.26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.8</c:v>
+                  <c:v>10.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1531,7 +1531,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1557,7 +1557,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>37</v>
+        <v>40.6</v>
       </c>
       <c r="C2" s="1">
         <v>23</v>
@@ -1568,7 +1568,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>32.5</v>
+        <v>47.6</v>
       </c>
       <c r="C3" s="2">
         <v>31</v>
@@ -1601,7 +1601,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="3">
-        <v>10.8</v>
+        <v>10.14</v>
       </c>
       <c r="C6" s="3">
         <v>6.3</v>
@@ -1619,7 +1619,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>24.7</v>
+        <v>29.6</v>
       </c>
       <c r="C8" s="6">
         <v>13</v>
@@ -1630,7 +1630,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>21.45</v>
+        <v>27.3</v>
       </c>
       <c r="C9" s="7">
         <v>12</v>
@@ -1641,7 +1641,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>20.28</v>
+        <v>14.4</v>
       </c>
       <c r="C10" s="6">
         <v>11</v>

--- a/FP UC/fp.xlsx
+++ b/FP UC/fp.xlsx
@@ -212,11 +212,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Function</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> Points</a:t>
+              <a:t>Function Points</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -259,8 +255,11 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Alte UC´s</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -350,7 +349,79 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Neue UC´s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$8:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>29.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$8:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A9C5-4F3C-8E18-D5F2B5669F8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -603,6 +674,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1531,7 +1633,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1622,7 +1724,7 @@
         <v>29.6</v>
       </c>
       <c r="C8" s="6">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1633,7 +1735,7 @@
         <v>27.3</v>
       </c>
       <c r="C9" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1644,7 +1746,7 @@
         <v>14.4</v>
       </c>
       <c r="C10" s="6">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/FP UC/fp.xlsx
+++ b/FP UC/fp.xlsx
@@ -44,9 +44,6 @@
     <t>Browse Image</t>
   </si>
   <si>
-    <t>Bind to Google Search</t>
-  </si>
-  <si>
     <t>Eye Detection</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>Semester 2</t>
+  </si>
+  <si>
+    <t>Attributes</t>
   </si>
 </sst>
 </file>
@@ -301,19 +301,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>40.6</c:v>
+                  <c:v>51.48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.6</c:v>
+                  <c:v>23.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>17.940000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>13.26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.14</c:v>
+                  <c:v>7.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -325,10 +325,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>14</c:v>
@@ -384,13 +384,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>29.6</c:v>
+                  <c:v>52.26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.3</c:v>
+                  <c:v>13.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.4</c:v>
+                  <c:v>15.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -402,13 +402,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -421,7 +421,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1633,7 +1632,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1656,24 +1655,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>40.6</v>
+        <v>51.48</v>
       </c>
       <c r="C2" s="1">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>47.6</v>
+        <v>23.45</v>
       </c>
       <c r="C3" s="2">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1681,7 +1680,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>28</v>
+        <v>17.940000000000001</v>
       </c>
       <c r="C4" s="1">
         <v>14</v>
@@ -1689,7 +1688,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>13.26</v>
@@ -1700,10 +1699,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3">
-        <v>10.14</v>
+        <v>7.8</v>
       </c>
       <c r="C6" s="3">
         <v>6.3</v>
@@ -1711,42 +1710,42 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B8" s="6">
-        <v>29.6</v>
+        <v>52.26</v>
       </c>
       <c r="C8" s="6">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="7">
-        <v>27.3</v>
+        <v>13.26</v>
       </c>
       <c r="C9" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="6">
-        <v>14.4</v>
+        <v>15.6</v>
       </c>
       <c r="C10" s="6">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/FP UC/fp.xlsx
+++ b/FP UC/fp.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>Stunden</t>
   </si>
@@ -60,6 +60,66 @@
   </si>
   <si>
     <t>Attributes</t>
+  </si>
+  <si>
+    <t>UC</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>18h</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>25h</t>
+  </si>
+  <si>
+    <t>5h</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>23h</t>
+  </si>
+  <si>
+    <t>31h</t>
+  </si>
+  <si>
+    <t>0,5h</t>
+  </si>
+  <si>
+    <t>6,5h</t>
+  </si>
+  <si>
+    <t>6h</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t>12h</t>
+  </si>
+  <si>
+    <t>14h</t>
   </si>
 </sst>
 </file>
@@ -91,7 +151,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,6 +167,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -151,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -160,6 +226,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1629,10 +1696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1748,6 +1815,131 @@
         <v>11</v>
       </c>
     </row>
+    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="1">
+        <f>B3</f>
+        <v>23.45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="2">
+        <f>B2</f>
+        <v>51.48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="1">
+        <f>B6</f>
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="2">
+        <f>B5</f>
+        <v>13.26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="1">
+        <f>B4</f>
+        <v>17.940000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
